--- a/ratecard/ratecardresponse.xlsx
+++ b/ratecard/ratecardresponse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,11 @@
           <t>json</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>RateCardID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -636,22 +641,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>668c13be30b0b830ec5cec07</t>
+          <t>66d00faeb1dbc9702f404784</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New Essential Plan</t>
+          <t>HCL Software</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>this is for my xpx product</t>
+          <t>NEW DEAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64e77ec2fc8337558d722547</t>
+          <t>664afc3caf2dfa4e7eeda5db</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -660,10 +665,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I2" t="n">
         <v>1665413598.391</v>
@@ -672,7 +677,7 @@
         <v>1731196800</v>
       </c>
       <c r="K2" t="n">
-        <v>120</v>
+        <v>1120</v>
       </c>
       <c r="L2" t="n">
         <v>1665413598.391</v>
@@ -775,31 +780,31 @@
       <c r="AN2" t="inlineStr">
         <is>
           <t>{
-    "name": "New Essential Plan",
-    "description": "Ratecard description for Ratecard_New Essential Plan",
-    "platformId": "64e77ec2fc8337558d722547",
+    "name": "HCL Software",
+    "description": "Ratecard description for Ratecard_HCL Software",
+    "platformId": "664afc3caf2dfa4e7eeda5db",
     "rateCardType": "SILVER",
     "paasFee": {
-        "fixedFee": 110,
+        "fixedFee": 1100,
         "baseFee": "0.0",
-        "validityFrom": 1724421954.506825,
-        "validityTo": 1819029954.506835
+        "validityFrom": 1724912060.68319,
+        "validityTo": 1819520060.683204
     },
     "saasFee": {
-        "fixedFee": 120,
-        "validityFrom": 1724421954.506825,
-        "validityTo": 1819029954.506835
+        "fixedFee": 1120,
+        "validityFrom": 1724912060.68319,
+        "validityTo": 1819520060.683204
     },
     "apiCountFee": {
-        "validityFrom": 1724421954.506825,
-        "validityTo": 1819029954.506835,
+        "validityFrom": 1724912060.68319,
+        "validityTo": 1819520060.683204,
         "perApiFee": 122.5,
         "apiLimit": 25,
         "baseFee": 12
     },
     "dataVolumeFee": {
-        "validityFrom": 1724421954.506825,
-        "validityTo": 1819029954.506835,
+        "validityFrom": 1724912060.68319,
+        "validityTo": 1819520060.683204,
         "perVolumeFee": 122.5,
         "volumeLimit": 25,
         "fixedFee": 12,
@@ -816,6 +821,11 @@
 }</t>
         </is>
       </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ratecard/ratecardresponse.xlsx
+++ b/ratecard/ratecardresponse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,250 +434,270 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>productID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>platformId</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>rateCardType</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>paasFee_fixedFee</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>paasFee_baseFee</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>paasFee_validityFrom</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>paasFee_validityTo</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>saasFee_fixedFee</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>saasFee_validityFrom</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>saasFee_validityTo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>apiCountFee_validityFrom</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>apiCountFee_validityTo</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>apiCountFee_perApiFee</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>apiCountFee_apiLimit</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>apiCountFee_baseFee</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>dataVolumeFee_validityFrom</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>dataVolumeFee_validityTo</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>dataVolumeFee_perVolumeFee</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>dataVolumeFee_volumeLimit</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>dataVolumeFee_fixedFee</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>dataVolumeFee_dataUnitType</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>dataTransferFee_validityFrom</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>dataTransferFee_validityTo</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>dataTransferFee_perVolumeFee</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>dataTransferFee_volumeLimit</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>dataTransferFee_fixedFee</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>dataTransferFee_dataUnitType</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>dataSharable</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>isActive</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>contextId</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>billingCycleUnit</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>billingCycle</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>eligibleForRoyalty</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>rateCardFor</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>RateCardID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>66d00faeb1dbc9702f404784</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HCL Software</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6687b13c5a9fc761c43bcd1e</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>NEW DEAL</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>664afc3caf2dfa4e7eeda5db</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>SILVER</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>1100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>1100</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1665413598.391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1731196800</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1120</v>
       </c>
       <c r="L2" t="n">
         <v>1665413598.391</v>
@@ -686,98 +706,107 @@
         <v>1731196800</v>
       </c>
       <c r="N2" t="n">
+        <v>1120</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1665413598.391</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1731196800</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1646765091.204</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>1646765091.204</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>122.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>25</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>12</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>1646765091.204</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>1646765091.204</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>122.5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>25</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>12</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>BYTE</t>
         </is>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>1646765091.204</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>1646765091.204</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>122.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>25</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>12</v>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>BYTE</t>
         </is>
       </c>
-      <c r="AE2" t="b">
+      <c r="AH2" t="b">
         <v>1</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>INR</t>
         </is>
       </c>
-      <c r="AG2" t="b">
+      <c r="AJ2" t="b">
         <v>1</v>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Context_Id</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>MINUTES</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AM2" t="n">
         <v>2</v>
       </c>
-      <c r="AK2" t="b">
+      <c r="AN2" t="b">
         <v>1</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>Comment Section.</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>PRODUCT</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>{
     "name": "HCL Software",
@@ -821,7 +850,7 @@
 }</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
